--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_24.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_24.xlsx
@@ -483,35 +483,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_119</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3833333333333333</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(60.76, 64.36)]</t>
+          <t>[(34.3, 49.84)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(117.54, 121.8)]</t>
+          <t>[(16.34, 44.36)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -520,35 +520,35 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Ab']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E', 'E/5', 'E']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(56.36, 59.8)]</t>
+          <t>[(0.78, 9.74)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(61.881201, 65.886643)]</t>
+          <t>[(45.26, 57.58)]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -557,72 +557,76 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>isophonics_19</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1785714285714285</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F']]</t>
+          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['F', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(51.69, 55.72)]</t>
+          <t>[(54.4, 61.44)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(74.38, 84.38)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[(38.438956, 41.94517)]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_222</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2019230769230769</v>
+        <v>0.2597402597402597</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D', 'B:min', 'D', 'B:min']]</t>
+          <t>[['Ab', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'B:min', 'D', 'B:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(8.587755, 19.396643)]</t>
+          <t>[(66.93, 72.56)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(0.708462, 9.669544)]</t>
+          <t>[(65.44, 66.82)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -631,236 +635,232 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.09779367918902802</v>
+        <v>0.1672201138519924</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
+          <t>[['A', 'A', 'A', 'A:7/3', 'D']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['Bb', 'Bb', 'Bb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(111.28, 124.16)]</t>
+          <t>[(14.54151, 21.658426)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[(11.95, 15.8)]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.08571428571428572</v>
+        <v>0.2015810276679842</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['Cb', 'Gb:7', 'Cb']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(46.75, 47.53)]</t>
+          <t>[(1.54, 3.58)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(46.759, 50.551)]</t>
+          <t>[(3.82, 6.46)]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>isophonics_242</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1540436456996149</v>
+        <v>0.1169415292353823</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C', 'G']]</t>
+          <t>[['B', 'E', 'B'], ['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D/5', 'A']]</t>
+          <t>[['E', 'A', 'E'], ['D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.336043, 30.271443)]</t>
+          <t>[(46.272131, 52.17), (44.310045, 50.196303)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.71, 5.544)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[(13.878853, 21.111869), (60.040123, 71.429511)]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1348837209302326</v>
+        <v>0.0782520325203252</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['E/4', 'D/5', 'A'], ['E/3', 'A', 'D']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['B', 'A', 'E'], ['B', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[(32.311, 37.28), (95.673, 99.127)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[(0.268067, 8.504874), (30.424512, 35.962471)]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>isophonics_233</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1200716845878136</v>
+        <v>0.1441176470588235</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D', 'A']]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'D', 'A']]</t>
+          <t>[['D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(25.850181, 33.826235)]</t>
+          <t>[(9.1, 13.86)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(21.36873, 26.802199)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[(36.711, 39.787)]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>isophonics_234</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.2280405405405405</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(60.761383, 69.294716)]</t>
+          <t>[(75.439, 83.381)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(60.04, 67.08)]</t>
+          <t>[(143.58, 148.16)]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -869,84 +869,76 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1098901098901099</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#'], ['F:min/C', 'C', 'F:min/C']]</t>
+          <t>[['E/5', 'E/#4', 'E/4'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['C', 'C/7', 'C/6'], ['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(26.36, 34.36), (48.0, 52.2)]</t>
+          <t>[(0.440395, 4.837819), (25.015959, 36.625937)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(23.42, 31.44), (13.12, 19.96)]</t>
+          <t>[(69.901, 77.903), (5.121, 12.601)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_42</t>
+          <t>isophonics_273</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1480769230769231</v>
+        <v>0.08492822966507177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F']]</t>
+          <t>[['C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
+          <t>[['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(41.77, 53.98)]</t>
+          <t>[(20.801, 27.165)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(6.38, 12.5)]</t>
+          <t>[(0.421247, 3.083177)]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -956,30 +948,30 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.05116019010343863</v>
+        <v>0.05900948366701791</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>[['Db', 'Db:min', 'Ab']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
+          <t>[['F:maj', 'F:min', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(34.65, 37.76), (48.18, 50.27)]</t>
+          <t>[(129.12, 131.12)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.318208, 18.355396), (118.584331, 127.280204)]</t>
+          <t>[(46.097, 54.196)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -988,76 +980,72 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1494565217391304</v>
+        <v>0.1396103896103896</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C', 'G:7']]</t>
+          <t>[['F:maj', 'F:7', 'Bb']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['D#:maj', 'D#:7', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(6.04, 13.24)]</t>
+          <t>[(13.155, 20.379)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(19.36, 22.38)]</t>
+          <t>[(15.64, 24.28)]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>isophonics_170</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1192396313364055</v>
+        <v>0.07668898356664638</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
+          <t>[['A', 'D/5', 'D']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F']]</t>
+          <t>[['A', 'D', 'D/7']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(10.86, 14.13)]</t>
+          <t>[(35.463242, 38.330907)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(51.69, 55.72)]</t>
+          <t>[(10.560212, 12.866913)]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1066,39 +1054,47 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jaah_44</t>
+          <t>schubert-winterreise_143</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1214285714285714</v>
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db', 'Db']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(80.48, 93.6)]</t>
+          <t>[(0.62, 107.38)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(46.99, 49.5)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[(1.66, 97.0)]</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_24.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7083333333333333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.323076923076923</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(34.3, 49.84)]</t>
+          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(16.34, 44.36)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>jaah_62</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jaah_21</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06114982578397213</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>[['D:7', 'G:7', 'G:7']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(0.78, 9.74)]</t>
+          <t>[['F:7', 'Bb:7', 'Bb:7']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(45.26, 57.58)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:07.920000', '0:00:10.280000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:01.510000', '0:01:04.710000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E']]</t>
-        </is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2039473684210526</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(54.4, 61.44)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(38.438956, 41.94517)]</t>
+          <t>[('0:00:17.581738', '0:00:30.271443')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:11.384000', '0:00:18.318000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2597402597402597</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2818181818181819</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>[['B', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(66.93, 72.56)]</t>
+          <t>[['B', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(65.44, 66.82)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:08.291354', '0:00:14.073123')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:17.942016', '0:00:25.860021')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_79</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1672201138519924</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A', 'A:7/3', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2003577817531306</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Bb', 'Bb', 'Bb', 'Bb:7', 'Eb']]</t>
+          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(14.54151, 21.658426)]</t>
+          <t>[['C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(11.95, 15.8)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:01:45.840000', '0:02:00.500000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:40.600000', '0:00:45.980000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3555555555555555</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.54, 3.58)]</t>
+          <t>[['F/2', 'C', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:01:54.520000', '0:01:55.980000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:57.758000', '0:01:05.204000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1169415292353823</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'B'], ['A', 'B', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E'], ['D', 'E', 'A']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(46.272131, 52.17), (44.310045, 50.196303)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.878853, 21.111869), (60.040123, 71.429511)]</t>
+          <t>[('0:00:01.340000', '0:00:08.860000'), ('0:00:54.180000', '0:01:01.460000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0782520325203252</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E/4', 'D/5', 'A'], ['E/3', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'E'], ['B', 'E', 'A']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(32.311, 37.28), (95.673, 99.127)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(0.268067, 8.504874), (30.424512, 35.962471)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:24.860000', '0:00:52.580000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:47.100000', '0:01:49.300000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1441176470588235</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
+          <t>[('0:02:12.300000', '0:02:16.560000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(75.439, 83.381)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(143.58, 148.16)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2549019607843137</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E/5', 'E/#4', 'E/4'], ['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_81</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C', 'C/7', 'C/6'], ['C', 'F/5', 'C']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.440395, 4.837819), (25.015959, 36.625937)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(69.901, 77.903), (5.121, 12.601)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:58.780000', '0:01:01.540000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:19.260000', '0:00:22.260000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_273</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08492822966507177</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(20.801, 27.165)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.421247, 3.083177)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.05900948366701791</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['Db', 'Db:min', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:min', 'C:maj']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(129.12, 131.12)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(46.097, 54.196)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1396103896103896</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj']]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(13.155, 20.379)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(15.64, 24.28)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:13.080000', '0:01:14.300000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_170</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07668898356664638</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'D/5', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_39</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'D/7']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(35.463242, 38.330907)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(10.560212, 12.866913)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:12.440000', '0:00:38.460000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:10.700000', '0:00:35.520000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.62, 107.38)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(1.66, 97.0)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
